--- a/IAA-CO2-MIN-Python-GIT.xlsx
+++ b/IAA-CO2-MIN-Python-GIT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t xml:space="preserve">Sample/ 
 purpose of experiment</t>
@@ -92,24 +92,24 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nesq + E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-2407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-2507</t>
+  </si>
+  <si>
     <t xml:space="preserve">MgCIT</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nesq + unreacted mgso4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-2407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-2507</t>
-  </si>
-  <si>
     <t xml:space="preserve">R-3007</t>
   </si>
   <si>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">R-1610</t>
   </si>
   <si>
-    <t xml:space="preserve">Nesq + MgCIT </t>
+    <t xml:space="preserve">Nesq </t>
   </si>
   <si>
     <t xml:space="preserve">R-1710</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">R-22042025</t>
   </si>
   <si>
-    <t xml:space="preserve">Nesq + MgSO4 + Unknown </t>
+    <t xml:space="preserve">Nesq + E </t>
   </si>
 </sst>
 </file>
@@ -560,11 +560,11 @@
   </sheetPr>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="E:U"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.28"/>
@@ -577,7 +577,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="27.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="41.15"/>
   </cols>
@@ -999,9 +999,7 @@
       <c r="C16" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1021,13 +1019,13 @@
         <v>1106</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>18</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1045,16 +1043,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="C18" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5"/>
       <c r="J18" s="9"/>
@@ -1066,16 +1064,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>24.8</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E19" s="5"/>
       <c r="J19" s="9"/>
@@ -1234,7 +1232,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>38.7</v>
@@ -1274,7 +1272,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="16" t="n">
         <v>21.4</v>
@@ -1295,7 +1293,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>19.2</v>
@@ -1315,7 +1313,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="20" t="n">
         <v>40</v>
@@ -1335,7 +1333,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>25</v>
@@ -1355,7 +1353,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="24" t="n">
         <v>45</v>
@@ -1477,7 +1475,7 @@
         <v>59</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="16" t="n">
         <v>25</v>
@@ -1531,7 +1529,7 @@
         <v>63</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>22</v>
@@ -1577,7 +1575,7 @@
         <v>66</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>21.2</v>
